--- a/sample_input.xlsx
+++ b/sample_input.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="АВГУСТ 2025" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ZAKAZ" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'АВГУСТ 2025'!$A$1:$P$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ZAKAZ!$A$1:$P$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -629,10 +629,10 @@
   <dimension ref="A1:P227"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C227" activeCellId="0" sqref="C55:C227"/>
+      <selection pane="topLeft" activeCell="C227" activeCellId="0" sqref="C227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7890625" defaultRowHeight="51" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.79296875" defaultRowHeight="51" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.45"/>

--- a/sample_input.xlsx
+++ b/sample_input.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="158">
   <si>
     <t xml:space="preserve">ДАТА</t>
   </si>
@@ -350,6 +350,153 @@
   </si>
   <si>
     <t xml:space="preserve">SUBARU XV 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT_Chery_Tiggo 5_I пок и R_2005-2016_black+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHERY TIGGO 5 1 и рестайлинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOD_Chery_Tiggo 5_I пок и R_2005-2016_black+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Chery+Tigg_o7ProMBez+2020-2024+black+16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHERY TIGGO 7 без панорамы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">без панорамы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERED_EVA+Chery+Tiggo 7 Pro Max+2020-2024+black+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHERY TIGGO 7 панорама</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOD+Chery+Tiggo_7ProMAXbeZ+2020-2024+black+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT_Dodge_Nitro_I пок_2006-2011_black+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGE NITRO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Doodge+RAM+2008-2021+black+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGE RAM 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Geely+Emgrand 7+2020-2022+black+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEELY EMGRAND 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Geely+Emgrand EC 7+2020-2023+black+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEELY EMGRAND 7 EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOD+Hyundai+Solaris+2010-2017 +black+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYUNDAI SOLARIS 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Hyundai+Sol_a_ris+2010-2017 +black+9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Hyundai+Solaris +2017-2022+black+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYUNDAI SOLARIS 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Jetour+Т2+2023-2024+black+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JETOUR T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Jetour+X70 plus+2020-2024+black+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JETOUR X70 PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Jetour+X90 plus+2021-2024+black+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JETOUR X90 PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Lada+_Niva+1977-2020+black+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADA NIVA 2121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA_BORT+Volkswagen+Tiguan+2016-2021+black+12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOTOK+Ковер лоток+50х45++black+20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коврик под лоток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50*45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISKA+Ковер миска+40х40++grey+9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40*40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOM80+Ковер 80х50+80х50++grey+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коврик придверный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80*50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOM80+Ковер 80х50+80х50++grey+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LODKA+Звезда+380++grey+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лодка Звезда 380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LODKA+Звезда Тримаран 360+НДНД+grey+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лодка Звезда Тримаран 360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НУЖНО ЗАПИСАТЬ ВИДЕО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LODKA+Навигатор 380R PRO+риб+grey+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лодка Навигатор 380R PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LODKA+Нордик 360+пайол+grey+11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лодка Нордик 360</t>
   </si>
 </sst>
 </file>
@@ -361,7 +508,7 @@
     <numFmt numFmtId="165" formatCode="[$-419]d\ mmm;@"/>
     <numFmt numFmtId="166" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -426,6 +573,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF070707"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -488,7 +642,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,6 +692,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,13 +796,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P227"/>
+  <dimension ref="A1:P265"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C227" activeCellId="0" sqref="C227"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R70" activeCellId="0" sqref="R70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.79296875" defaultRowHeight="51" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.80078125" defaultRowHeight="51" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.45"/>
@@ -2117,1697 +2287,2099 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B40" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C40" s="8"/>
+      <c r="A40" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B40" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L40" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B41" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C41" s="8"/>
+      <c r="A41" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B41" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B42" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C42" s="8"/>
+      <c r="A42" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B42" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="L42" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B43" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="C43" s="8"/>
+      <c r="A43" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B43" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L43" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B44" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="C44" s="8"/>
+      <c r="A44" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B44" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B45" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="C45" s="8"/>
+      <c r="A45" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B45" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L45" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B46" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="C46" s="8"/>
+      <c r="A46" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B46" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L46" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B47" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="C47" s="8"/>
+      <c r="A47" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B47" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B48" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="C48" s="8"/>
+      <c r="A48" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B48" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B49" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="C49" s="8"/>
+      <c r="A49" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B49" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B50" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="C50" s="4"/>
+      <c r="A50" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B50" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="L50" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B51" s="8" t="n">
-        <v>45879</v>
-      </c>
-      <c r="C51" s="8"/>
+      <c r="A51" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B51" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L51" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B52" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="C52" s="8"/>
+      <c r="A52" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B52" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L52" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B53" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="C53" s="8"/>
+      <c r="A53" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B53" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L53" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B54" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="C54" s="8"/>
+      <c r="A54" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B54" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L54" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B55" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="C55" s="8"/>
+      <c r="A55" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B55" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B56" s="8" t="n">
-        <v>45880</v>
-      </c>
-      <c r="C56" s="8"/>
+      <c r="A56" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B56" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L56" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B57" s="8" t="n">
-        <v>45879</v>
-      </c>
-      <c r="C57" s="8"/>
+      <c r="A57" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B57" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B58" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="C58" s="4"/>
+      <c r="A58" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B58" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L58" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B59" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="C59" s="4"/>
+      <c r="A59" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B59" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L59" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B60" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="C60" s="8"/>
+      <c r="A60" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B60" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L60" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="n">
-        <v>45869</v>
+        <v>45903</v>
       </c>
       <c r="B61" s="13" t="n">
-        <v>45870</v>
+        <v>45904</v>
       </c>
       <c r="C61" s="13"/>
+      <c r="D61" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="L61" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B62" s="8" t="n">
-        <v>45879</v>
-      </c>
-      <c r="C62" s="8"/>
+      <c r="A62" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B62" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="L62" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B63" s="4" t="n">
-        <v>45881</v>
-      </c>
-      <c r="C63" s="4"/>
+      <c r="A63" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B63" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="L63" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B64" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="C64" s="8"/>
+      <c r="A64" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B64" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B65" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="C65" s="8"/>
+      <c r="A65" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B65" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L65" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B66" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="C66" s="8"/>
+      <c r="A66" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B66" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L66" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B67" s="8" t="n">
-        <v>45880</v>
-      </c>
-      <c r="C67" s="8"/>
+      <c r="A67" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B67" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L67" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B68" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C68" s="8"/>
+      <c r="A68" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B68" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L68" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="n">
-        <v>45869</v>
+        <v>45903</v>
       </c>
       <c r="B69" s="13" t="n">
-        <v>45870</v>
+        <v>45904</v>
       </c>
       <c r="C69" s="13"/>
+      <c r="D69" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L69" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B70" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="C70" s="8"/>
+      <c r="A70" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B70" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L70" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B71" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="C71" s="8"/>
+      <c r="A71" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B71" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L71" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B72" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="C72" s="8"/>
+      <c r="A72" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B72" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L72" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B73" s="4" t="n">
-        <v>45881</v>
-      </c>
-      <c r="C73" s="4"/>
+      <c r="A73" s="13" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B73" s="13" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K73" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L73" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B74" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B75" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B76" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B77" s="8" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B78" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B79" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B80" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B81" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B82" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B83" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B84" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B85" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B86" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B87" s="8" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B88" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
       <c r="C88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B89" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B90" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B91" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B92" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B93" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B94" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B95" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B96" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B97" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B98" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B99" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B100" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
       <c r="C100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B101" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B102" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
       <c r="C102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B103" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B104" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B105" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B106" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
       <c r="C106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B107" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B108" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
       <c r="C108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B109" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B110" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
       <c r="C110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B111" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B112" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
       <c r="C112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B113" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
       <c r="C113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B114" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
       <c r="C114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B115" s="8" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
       <c r="C115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B116" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
       <c r="C116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B117" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
       <c r="C117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B118" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
       <c r="C118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B119" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
       <c r="C119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="13" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B120" s="13" t="n">
-        <v>45870</v>
-      </c>
-      <c r="C120" s="13"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
     </row>
     <row r="121" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B121" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
       <c r="C121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B122" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
       <c r="C122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B123" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
       <c r="C123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B124" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
       <c r="C124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B125" s="4" t="n">
-        <v>45881</v>
-      </c>
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B126" s="8" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
       <c r="C126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B127" s="8" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
       <c r="C127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B128" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
       <c r="C128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B129" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
       <c r="C129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B130" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B131" s="8" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B132" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
       <c r="C132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B133" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B134" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
       <c r="C134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B135" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
       <c r="C135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B136" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
       <c r="C136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B137" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
       <c r="C137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B138" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
     <row r="139" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B139" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
     <row r="140" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B140" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B141" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
       <c r="C141" s="8"/>
     </row>
     <row r="142" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B142" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
       <c r="C142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B143" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
       <c r="C143" s="8"/>
     </row>
     <row r="144" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B144" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
       <c r="C144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B145" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
       <c r="C145" s="8"/>
     </row>
     <row r="146" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B146" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
       <c r="C146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B147" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
       <c r="C147" s="8"/>
     </row>
     <row r="148" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B148" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
       <c r="C148" s="8"/>
     </row>
     <row r="149" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B149" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
       <c r="C149" s="8"/>
     </row>
     <row r="150" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B150" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
       <c r="C150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B151" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
     <row r="152" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B152" s="8" t="n">
-        <v>45870</v>
-      </c>
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
     <row r="153" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B153" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
       <c r="C153" s="8"/>
     </row>
     <row r="154" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B154" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
       <c r="C154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="13" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B155" s="13" t="n">
-        <v>45870</v>
-      </c>
-      <c r="C155" s="13"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
     </row>
     <row r="156" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="13" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B156" s="13" t="n">
-        <v>45870</v>
-      </c>
-      <c r="C156" s="13"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
     </row>
     <row r="157" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="13" t="n">
-        <v>45868</v>
-      </c>
-      <c r="B157" s="13" t="n">
-        <v>45870</v>
-      </c>
-      <c r="C157" s="13"/>
+      <c r="A157" s="17"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
     </row>
     <row r="158" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B158" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
       <c r="C158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B159" s="8" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
       <c r="C159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B160" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
       <c r="C160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B161" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
       <c r="C161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B162" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
       <c r="C162" s="8"/>
     </row>
     <row r="163" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="13" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B163" s="13" t="n">
-        <v>45870</v>
-      </c>
-      <c r="C163" s="13"/>
+      <c r="A163" s="17"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
     </row>
     <row r="164" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B164" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
       <c r="C164" s="8"/>
     </row>
     <row r="165" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B165" s="8" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
       <c r="C165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B166" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
       <c r="C166" s="8"/>
     </row>
     <row r="167" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B167" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
       <c r="C167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B168" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
       <c r="C168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B169" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
       <c r="C169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B170" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
       <c r="C170" s="8"/>
     </row>
     <row r="171" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B171" s="8" t="n">
-        <v>45870</v>
-      </c>
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
       <c r="C171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B172" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
       <c r="C172" s="8"/>
     </row>
     <row r="173" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B173" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
       <c r="C173" s="8"/>
     </row>
     <row r="174" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B174" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
       <c r="C174" s="8"/>
     </row>
     <row r="175" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B175" s="8" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
       <c r="C175" s="8"/>
     </row>
     <row r="176" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B176" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
       <c r="C176" s="8"/>
     </row>
     <row r="177" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B177" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
       <c r="C177" s="8"/>
     </row>
     <row r="178" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B178" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
       <c r="C178" s="8"/>
     </row>
     <row r="179" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B179" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
       <c r="C179" s="8"/>
     </row>
     <row r="180" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B180" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
       <c r="C180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B181" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
       <c r="C181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B182" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
       <c r="C182" s="8"/>
     </row>
     <row r="183" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B183" s="8" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
       <c r="C183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B184" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
       <c r="C184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B185" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
       <c r="C185" s="8"/>
     </row>
     <row r="186" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B186" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
       <c r="C186" s="8"/>
     </row>
     <row r="187" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B187" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
       <c r="C187" s="8"/>
     </row>
     <row r="188" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B188" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
       <c r="C188" s="8"/>
     </row>
     <row r="189" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B189" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
       <c r="C189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B190" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
       <c r="C190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B191" s="8" t="n">
-        <v>45870</v>
-      </c>
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
       <c r="C191" s="8"/>
     </row>
     <row r="192" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B192" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
       <c r="C192" s="8"/>
     </row>
     <row r="193" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B193" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
       <c r="C193" s="8"/>
     </row>
     <row r="194" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B194" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
       <c r="C194" s="8"/>
     </row>
     <row r="195" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B195" s="4" t="n">
-        <v>45881</v>
-      </c>
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
       <c r="C195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B196" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
       <c r="C196" s="8"/>
     </row>
     <row r="197" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B197" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
       <c r="C197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B198" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
       <c r="C198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B199" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
       <c r="C199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B200" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
       <c r="C200" s="8"/>
     </row>
     <row r="201" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B201" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
       <c r="C201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B202" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
       <c r="C202" s="8"/>
     </row>
     <row r="203" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B203" s="8" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
       <c r="C203" s="8"/>
     </row>
     <row r="204" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B204" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
       <c r="C204" s="8"/>
     </row>
     <row r="205" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="13" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B205" s="13" t="n">
-        <v>45870</v>
-      </c>
-      <c r="C205" s="13"/>
+      <c r="A205" s="17"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="17"/>
     </row>
     <row r="206" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="13" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B206" s="13" t="n">
-        <v>45870</v>
-      </c>
-      <c r="C206" s="13"/>
+      <c r="A206" s="17"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
     </row>
     <row r="207" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B207" s="8" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
       <c r="C207" s="8"/>
     </row>
     <row r="208" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B208" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
       <c r="C208" s="8"/>
     </row>
     <row r="209" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B209" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
       <c r="C209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B210" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
       <c r="C210" s="8"/>
     </row>
     <row r="211" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B211" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
       <c r="C211" s="8"/>
     </row>
     <row r="212" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B212" s="8" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
       <c r="C212" s="8"/>
     </row>
     <row r="213" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B213" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
       <c r="C213" s="8"/>
     </row>
     <row r="214" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B214" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
       <c r="C214" s="8"/>
     </row>
     <row r="215" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B215" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
       <c r="C215" s="8"/>
     </row>
     <row r="216" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B216" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
       <c r="C216" s="8"/>
     </row>
     <row r="217" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B217" s="4" t="n">
-        <v>45881</v>
-      </c>
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
       <c r="C217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B218" s="4" t="n">
-        <v>45881</v>
-      </c>
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
       <c r="C218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B219" s="8" t="n">
-        <v>45877</v>
-      </c>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
       <c r="C219" s="8"/>
     </row>
     <row r="220" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B220" s="8" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
       <c r="C220" s="8"/>
     </row>
     <row r="221" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B221" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
       <c r="C221" s="8"/>
     </row>
     <row r="222" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B222" s="8" t="n">
-        <v>45878</v>
-      </c>
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
       <c r="C222" s="8"/>
     </row>
     <row r="223" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B223" s="8" t="n">
-        <v>45871</v>
-      </c>
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
       <c r="C223" s="8"/>
     </row>
     <row r="224" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B224" s="8" t="n">
-        <v>45879</v>
-      </c>
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
       <c r="C224" s="8"/>
     </row>
     <row r="225" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B225" s="8" t="n">
-        <v>45874</v>
-      </c>
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
       <c r="C225" s="8"/>
     </row>
     <row r="226" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B226" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
       <c r="C226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B227" s="8" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
       <c r="C227" s="8"/>
     </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:P2"/>
   <mergeCells count="4">

--- a/sample_input.xlsx
+++ b/sample_input.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="161">
   <si>
     <t xml:space="preserve">ДАТА</t>
   </si>
@@ -91,6 +91,9 @@
     <t xml:space="preserve">SSANG YONG ACTYON 2</t>
   </si>
   <si>
+    <t xml:space="preserve">ЯМ</t>
+  </si>
+  <si>
     <t xml:space="preserve">борт</t>
   </si>
   <si>
@@ -205,10 +208,16 @@
     <t xml:space="preserve">VOLKSWAGEN TIGUAN 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Озон</t>
+  </si>
+  <si>
     <t xml:space="preserve">EVA_BORT+Volkswagen+_Tiguan+2016-2021+black+12</t>
   </si>
   <si>
     <t xml:space="preserve">VOLKSWAGEN TIGUAN 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВБ</t>
   </si>
   <si>
     <t xml:space="preserve">PERED_EVA_Volkswagen_Touareg_I пок и R_2002-2010_black+12</t>
@@ -642,7 +651,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -664,6 +673,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -798,11 +811,11 @@
   </sheetPr>
   <dimension ref="A1:P265"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R70" activeCellId="0" sqref="R70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F75" activeCellId="0" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.80078125" defaultRowHeight="51" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.80859375" defaultRowHeight="51" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.45"/>
@@ -901,16 +914,18 @@
       <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>12</v>
@@ -934,21 +949,23 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>12</v>
@@ -972,21 +989,23 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>12</v>
@@ -1010,21 +1029,23 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>12</v>
@@ -1048,21 +1069,23 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>12</v>
@@ -1074,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1086,21 +1109,23 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>12</v>
@@ -1116,65 +1141,69 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="7" t="n">
         <v>45880</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="7" t="n">
         <v>45880</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="J9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="L9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7"/>
+      <c r="L9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="7" t="n">
         <v>45880</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="7" t="n">
         <v>45880</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>12</v>
@@ -1186,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1197,131 +1226,139 @@
         <v>45880</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="J11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="L11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7"/>
+      <c r="L11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="9" t="n">
         <v>45875</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>45876</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="J12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="L12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7" t="n">
+      <c r="L12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="9" t="n">
         <v>45878</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>45879</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>45871</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B14" s="8" t="n">
-        <v>45871</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="J14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>15</v>
@@ -1332,34 +1369,36 @@
       <c r="M14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N14" s="7" t="s">
-        <v>51</v>
+      <c r="N14" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="9" t="n">
         <v>45870</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>45871</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="E15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>11</v>
@@ -1375,105 +1414,111 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="9" t="n">
         <v>45871</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>45872</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="E16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="7" t="n">
+      <c r="J16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="L16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7" t="n">
+      <c r="L16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="9" t="n">
         <v>45872</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>45873</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="E17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="7" t="n">
+      <c r="J17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="L17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7" t="n">
+      <c r="L17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="9" t="n">
         <v>45873</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="9" t="n">
         <v>45874</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>12</v>
@@ -1489,29 +1534,31 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="9" t="n">
         <v>45878</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="9" t="n">
         <v>45879</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>12</v>
@@ -1527,67 +1574,71 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="9" t="n">
         <v>45878</v>
       </c>
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="9" t="n">
         <v>45879</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="J20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="L20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7" t="n">
+      <c r="L20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="9" t="n">
         <v>45878</v>
       </c>
-      <c r="B21" s="8" t="n">
+      <c r="B21" s="9" t="n">
         <v>45879</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>12</v>
@@ -1603,29 +1654,31 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="9" t="n">
         <v>45871</v>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="9" t="n">
         <v>45872</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="5"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>2</v>
@@ -1641,29 +1694,31 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="9" t="n">
         <v>45875</v>
       </c>
-      <c r="B23" s="8" t="n">
+      <c r="B23" s="9" t="n">
         <v>45876</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>2</v>
@@ -1679,29 +1734,31 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="9" t="n">
         <v>45874</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="9" t="n">
         <v>45875</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>11</v>
@@ -1717,29 +1774,31 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="9" t="n">
         <v>45873</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B25" s="9" t="n">
         <v>45874</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>11</v>
@@ -1751,33 +1810,35 @@
         <v>0</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="9" t="n">
         <v>45879</v>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B26" s="9" t="n">
         <v>45880</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>11</v>
@@ -1789,33 +1850,35 @@
         <v>0</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="9" t="n">
         <v>45872</v>
       </c>
-      <c r="B27" s="8" t="n">
+      <c r="B27" s="9" t="n">
         <v>45873</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>13</v>
@@ -1827,71 +1890,75 @@
         <v>0</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="9" t="n">
         <v>45872</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="9" t="n">
         <v>45873</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="7" t="n">
+      <c r="C28" s="9"/>
+      <c r="D28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="L28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>84</v>
+      <c r="L28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="9" t="n">
         <v>45870</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="9" t="n">
         <v>45871</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>11</v>
@@ -1903,33 +1970,35 @@
         <v>0</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="9" t="n">
         <v>45875</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="9" t="n">
         <v>45876</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>11</v>
@@ -1945,29 +2014,31 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="9" t="n">
         <v>45873</v>
       </c>
-      <c r="B31" s="8" t="n">
+      <c r="B31" s="9" t="n">
         <v>45874</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>11</v>
@@ -1979,33 +2050,35 @@
         <v>0</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="9" t="n">
         <v>45872</v>
       </c>
-      <c r="B32" s="8" t="n">
+      <c r="B32" s="9" t="n">
         <v>45873</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>11</v>
@@ -2021,29 +2094,31 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="9" t="n">
         <v>45874</v>
       </c>
-      <c r="B33" s="8" t="n">
+      <c r="B33" s="9" t="n">
         <v>45875</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>11</v>
@@ -2059,29 +2134,31 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="9" t="n">
         <v>45871</v>
       </c>
-      <c r="B34" s="8" t="n">
+      <c r="B34" s="9" t="n">
         <v>45872</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>8</v>
@@ -2097,29 +2174,31 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
+      <c r="A35" s="9" t="n">
         <v>45872</v>
       </c>
-      <c r="B35" s="8" t="n">
+      <c r="B35" s="9" t="n">
         <v>45873</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>11</v>
@@ -2131,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2143,21 +2222,23 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>12</v>
@@ -2181,21 +2262,23 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>2</v>
@@ -2211,29 +2294,31 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+      <c r="A38" s="9" t="n">
         <v>45879</v>
       </c>
-      <c r="B38" s="8" t="n">
+      <c r="B38" s="9" t="n">
         <v>45880</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>11</v>
@@ -2249,29 +2334,31 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+      <c r="A39" s="9" t="n">
         <v>45878</v>
       </c>
-      <c r="B39" s="8" t="n">
+      <c r="B39" s="9" t="n">
         <v>45879</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>11</v>
@@ -2287,1288 +2374,1356 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+      <c r="A40" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B40" s="13" t="n">
+      <c r="B40" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="I40" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="14" t="n">
+      <c r="J40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="L40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" s="13"/>
+      <c r="L40" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
+      <c r="A41" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B41" s="13" t="n">
+      <c r="B41" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B42" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="I42" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
+      <c r="J42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="L42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B42" s="13" t="n">
+      <c r="B43" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" s="14" t="n">
-        <v>16</v>
-      </c>
-      <c r="L42" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B43" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="K43" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="L43" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" s="14" t="n">
+      <c r="L43" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="15" t="n">
         <v>1</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
+      <c r="A44" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B44" s="13" t="n">
+      <c r="B44" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B45" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="I45" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" s="4" t="s">
+      <c r="J45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="L45" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B46" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L46" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B47" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L47" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B48" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L48" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B49" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
+      <c r="I49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L49" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B45" s="13" t="n">
+      <c r="B50" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15" t="s">
+      <c r="C50" s="14"/>
+      <c r="D50" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="G50" s="15"/>
+      <c r="H50" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="15" t="s">
+      <c r="I50" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="15" t="n">
+      <c r="J50" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="L50" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B51" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L51" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B52" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="L45" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" s="15"/>
-    </row>
-    <row r="46" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
+      <c r="L52" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B46" s="13" t="n">
+      <c r="B53" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14" t="s">
+      <c r="C53" s="14"/>
+      <c r="D53" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="G53" s="15"/>
+      <c r="H53" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="I53" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="14" t="n">
+      <c r="J53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="L46" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="L53" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B47" s="13" t="n">
+      <c r="B54" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14" t="s">
+      <c r="C54" s="14"/>
+      <c r="D54" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L54" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B55" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L55" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B56" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="L56" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B57" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L57" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B58" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L58" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B59" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="14" t="s">
+      <c r="G59" s="15"/>
+      <c r="H59" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="14" t="n">
+      <c r="J59" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K59" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L59" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B60" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="L47" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+      <c r="L60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B48" s="13" t="n">
+      <c r="B61" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="14" t="s">
+      <c r="C61" s="14"/>
+      <c r="D61" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="L48" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
+      <c r="J61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="L61" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B49" s="13" t="n">
+      <c r="B62" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="15" t="s">
+      <c r="C62" s="14"/>
+      <c r="D62" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="14" t="n">
+      <c r="J62" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="L62" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B63" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L63" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="14" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B64" s="14" t="n">
+        <v>45904</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="L49" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
+      <c r="L64" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B50" s="13" t="n">
+      <c r="B65" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="L50" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+      <c r="C65" s="14"/>
+      <c r="D65" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L65" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B51" s="13" t="n">
+      <c r="B66" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="14" t="n">
+      <c r="C66" s="14"/>
+      <c r="D66" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="L51" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+      <c r="L66" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B52" s="13" t="n">
+      <c r="B67" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="L52" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
+      <c r="C67" s="14"/>
+      <c r="D67" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="L67" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B53" s="13" t="n">
+      <c r="B68" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="L53" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+      <c r="C68" s="14"/>
+      <c r="D68" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="L68" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B54" s="13" t="n">
+      <c r="B69" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K54" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="L54" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
+      <c r="C69" s="14"/>
+      <c r="D69" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="L69" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B55" s="13" t="n">
+      <c r="B70" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K55" s="14" t="n">
+      <c r="C70" s="14"/>
+      <c r="D70" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="L55" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
+      <c r="L70" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B56" s="13" t="n">
+      <c r="B71" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="L56" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
+      <c r="C71" s="14"/>
+      <c r="D71" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L71" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B57" s="13" t="n">
+      <c r="B72" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="C72" s="14"/>
+      <c r="D72" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K57" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="L57" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="n">
+      <c r="G72" s="15"/>
+      <c r="H72" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L72" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14" t="n">
         <v>45903</v>
       </c>
-      <c r="B58" s="13" t="n">
+      <c r="B73" s="14" t="n">
         <v>45904</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K58" s="14" t="n">
+      <c r="C73" s="14"/>
+      <c r="D73" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="L58" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B59" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K59" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="L59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B60" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K60" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="L60" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B61" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="L61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B62" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K62" s="14" t="n">
-        <v>13</v>
-      </c>
-      <c r="L62" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B63" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="L63" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B64" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K64" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="L64" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B65" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K65" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="L65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B66" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J66" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L66" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B67" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J67" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K67" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L67" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B68" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J68" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K68" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L68" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B69" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J69" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K69" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L69" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B70" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K70" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="L70" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B71" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K71" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="L71" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B72" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J72" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K72" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="L72" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B73" s="13" t="n">
-        <v>45904</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J73" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K73" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="L73" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" s="14" t="n">
+      <c r="L73" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3576,6 +3731,7 @@
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
@@ -3583,129 +3739,129 @@
       <c r="C75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4"/>
@@ -3713,49 +3869,49 @@
       <c r="C101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
     </row>
     <row r="103" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
     </row>
     <row r="107" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4"/>
@@ -3763,69 +3919,69 @@
       <c r="C111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
     </row>
     <row r="114" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
     </row>
     <row r="121" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4"/>
@@ -3833,349 +3989,349 @@
       <c r="C125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
     </row>
     <row r="129" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
     </row>
     <row r="132" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
     </row>
     <row r="133" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
     </row>
     <row r="136" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
     </row>
     <row r="137" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
     </row>
     <row r="139" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
     </row>
     <row r="141" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
     </row>
     <row r="142" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
     </row>
     <row r="145" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
     </row>
     <row r="150" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
     </row>
     <row r="152" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
     </row>
     <row r="153" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
     </row>
     <row r="154" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
     </row>
     <row r="156" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
     </row>
     <row r="157" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="18"/>
     </row>
     <row r="158" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
     </row>
     <row r="159" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
     </row>
     <row r="160" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
     </row>
     <row r="163" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="17"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="18"/>
     </row>
     <row r="164" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
     </row>
     <row r="165" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
     </row>
     <row r="166" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
     </row>
     <row r="167" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
     </row>
     <row r="169" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
     </row>
     <row r="171" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
     </row>
     <row r="172" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
     </row>
     <row r="173" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
     </row>
     <row r="174" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
     </row>
     <row r="175" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
+      <c r="A177" s="9"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
+      <c r="A179" s="9"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
     </row>
     <row r="180" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
     </row>
     <row r="181" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
+      <c r="A183" s="9"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
+      <c r="A185" s="9"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
     </row>
     <row r="187" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
+      <c r="A187" s="9"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
+      <c r="A188" s="9"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
     </row>
     <row r="189" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
+      <c r="A190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
+      <c r="A191" s="9"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
+      <c r="A192" s="9"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
     </row>
     <row r="193" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
+      <c r="A194" s="9"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
     </row>
     <row r="195" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="4"/>
@@ -4183,29 +4339,29 @@
       <c r="C195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
+      <c r="A196" s="9"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
     </row>
     <row r="197" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
+      <c r="A197" s="9"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
     </row>
     <row r="198" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
+      <c r="A198" s="9"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
     </row>
     <row r="199" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
+      <c r="A199" s="9"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
+      <c r="A200" s="9"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
     </row>
     <row r="201" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="4"/>
@@ -4213,39 +4369,39 @@
       <c r="C201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
+      <c r="A202" s="9"/>
+      <c r="B202" s="9"/>
+      <c r="C202" s="9"/>
     </row>
     <row r="203" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
+      <c r="A203" s="9"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
     </row>
     <row r="204" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
+      <c r="A204" s="9"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
     </row>
     <row r="205" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="17"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="17"/>
+      <c r="A205" s="18"/>
+      <c r="B205" s="18"/>
+      <c r="C205" s="18"/>
     </row>
     <row r="206" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="17"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
+      <c r="A206" s="18"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
     </row>
     <row r="207" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
     </row>
     <row r="208" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
+      <c r="A208" s="9"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
     </row>
     <row r="209" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="4"/>
@@ -4253,39 +4409,39 @@
       <c r="C209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
+      <c r="A210" s="9"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
     </row>
     <row r="211" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
+      <c r="A211" s="9"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
+      <c r="A212" s="9"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="9"/>
     </row>
     <row r="213" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
+      <c r="A213" s="9"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
     </row>
     <row r="214" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
+      <c r="A214" s="9"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
     </row>
     <row r="215" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
+      <c r="A215" s="9"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
     </row>
     <row r="216" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
+      <c r="A216" s="9"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
     </row>
     <row r="217" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="4"/>
@@ -4298,39 +4454,39 @@
       <c r="C218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
+      <c r="A219" s="9"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
     </row>
     <row r="220" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
+      <c r="A220" s="9"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
     </row>
     <row r="221" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
+      <c r="A221" s="9"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
+      <c r="A222" s="9"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9"/>
     </row>
     <row r="223" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
+      <c r="A223" s="9"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="9"/>
     </row>
     <row r="224" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
+      <c r="A224" s="9"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
     </row>
     <row r="225" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="8"/>
+      <c r="A225" s="9"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="4"/>
@@ -4338,9 +4494,9 @@
       <c r="C226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
+      <c r="A227" s="9"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/sample_input.xlsx
+++ b/sample_input.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="161">
   <si>
     <t xml:space="preserve">ДАТА</t>
   </si>
@@ -805,13 +805,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P428"/>
+  <dimension ref="A1:P431"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A349" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A351" activeCellId="0" sqref="351:428"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="51" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.82421875" defaultRowHeight="51" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.45"/>
@@ -14751,3113 +14751,1254 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B351" s="14" t="n">
-        <v>45904</v>
-      </c>
+    <row r="351" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="14"/>
+      <c r="B351" s="14"/>
       <c r="C351" s="14"/>
-      <c r="D351" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E351" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F351" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D351" s="16"/>
+      <c r="E351" s="16"/>
+      <c r="F351" s="6"/>
       <c r="G351" s="16"/>
-      <c r="H351" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I351" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J351" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K351" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="L351" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M351" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N351" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B352" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H351" s="16"/>
+      <c r="I351" s="16"/>
+      <c r="J351" s="16"/>
+      <c r="K351" s="16"/>
+      <c r="L351" s="16"/>
+      <c r="M351" s="16"/>
+      <c r="N351" s="16"/>
+    </row>
+    <row r="352" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="14"/>
+      <c r="B352" s="14"/>
       <c r="C352" s="14"/>
-      <c r="D352" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E352" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F352" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D352" s="16"/>
+      <c r="E352" s="16"/>
+      <c r="F352" s="6"/>
       <c r="G352" s="16"/>
-      <c r="H352" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I352" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J352" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K352" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="L352" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M352" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N352" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B353" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H352" s="16"/>
+      <c r="I352" s="16"/>
+      <c r="J352" s="16"/>
+      <c r="K352" s="16"/>
+      <c r="L352" s="16"/>
+      <c r="M352" s="16"/>
+      <c r="N352" s="16"/>
+    </row>
+    <row r="353" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="14"/>
+      <c r="B353" s="14"/>
       <c r="C353" s="14"/>
-      <c r="D353" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E353" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F353" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D353" s="16"/>
+      <c r="E353" s="16"/>
+      <c r="F353" s="6"/>
       <c r="G353" s="16"/>
-      <c r="H353" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I353" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J353" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K353" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="L353" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M353" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N353" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B354" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H353" s="16"/>
+      <c r="I353" s="16"/>
+      <c r="J353" s="16"/>
+      <c r="K353" s="16"/>
+      <c r="L353" s="16"/>
+      <c r="M353" s="16"/>
+      <c r="N353" s="16"/>
+    </row>
+    <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="14"/>
+      <c r="B354" s="14"/>
       <c r="C354" s="14"/>
-      <c r="D354" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E354" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F354" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D354" s="15"/>
+      <c r="E354" s="15"/>
+      <c r="F354" s="6"/>
       <c r="G354" s="15"/>
-      <c r="H354" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I354" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J354" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K354" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L354" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M354" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N354" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="H354" s="15"/>
+      <c r="I354" s="15"/>
+      <c r="J354" s="15"/>
+      <c r="K354" s="15"/>
+      <c r="L354" s="15"/>
+      <c r="M354" s="15"/>
+      <c r="N354" s="15"/>
     </row>
     <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B355" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="A355" s="14"/>
+      <c r="B355" s="14"/>
       <c r="C355" s="14"/>
-      <c r="D355" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E355" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F355" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D355" s="15"/>
+      <c r="E355" s="15"/>
+      <c r="F355" s="6"/>
       <c r="G355" s="15"/>
-      <c r="H355" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I355" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J355" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K355" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L355" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M355" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N355" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B356" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H355" s="15"/>
+      <c r="I355" s="15"/>
+      <c r="J355" s="15"/>
+      <c r="K355" s="15"/>
+      <c r="L355" s="15"/>
+      <c r="M355" s="15"/>
+      <c r="N355" s="15"/>
+    </row>
+    <row r="356" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="14"/>
+      <c r="B356" s="14"/>
       <c r="C356" s="14"/>
-      <c r="D356" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E356" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F356" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D356" s="15"/>
+      <c r="E356" s="15"/>
+      <c r="F356" s="6"/>
       <c r="G356" s="15"/>
-      <c r="H356" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I356" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J356" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K356" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L356" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M356" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N356" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="H356" s="15"/>
+      <c r="I356" s="15"/>
+      <c r="J356" s="15"/>
+      <c r="K356" s="15"/>
+      <c r="L356" s="15"/>
+      <c r="M356" s="15"/>
+      <c r="N356" s="15"/>
     </row>
     <row r="357" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B357" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="A357" s="14"/>
+      <c r="B357" s="14"/>
       <c r="C357" s="14"/>
-      <c r="D357" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E357" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F357" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D357" s="15"/>
+      <c r="E357" s="15"/>
+      <c r="F357" s="6"/>
       <c r="G357" s="15"/>
-      <c r="H357" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I357" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J357" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K357" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L357" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M357" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N357" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B358" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="H357" s="15"/>
+      <c r="I357" s="15"/>
+      <c r="J357" s="15"/>
+      <c r="K357" s="15"/>
+      <c r="L357" s="15"/>
+      <c r="M357" s="15"/>
+      <c r="N357" s="15"/>
+    </row>
+    <row r="358" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="4"/>
+      <c r="B358" s="4"/>
       <c r="C358" s="4"/>
-      <c r="D358" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E358" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F358" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="6"/>
       <c r="G358" s="5"/>
-      <c r="H358" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I358" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J358" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K358" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L358" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B359" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="H358" s="5"/>
+      <c r="I358" s="5"/>
+      <c r="J358" s="5"/>
+      <c r="K358" s="5"/>
+      <c r="L358" s="5"/>
+      <c r="M358" s="5"/>
+      <c r="N358" s="5"/>
+    </row>
+    <row r="359" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="4"/>
+      <c r="B359" s="4"/>
       <c r="C359" s="4"/>
-      <c r="D359" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E359" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F359" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="6"/>
       <c r="G359" s="5"/>
-      <c r="H359" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I359" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J359" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K359" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L359" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B360" s="4" t="n">
-        <v>45882</v>
-      </c>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5"/>
+      <c r="K359" s="5"/>
+      <c r="L359" s="5"/>
+      <c r="M359" s="5"/>
+      <c r="N359" s="5"/>
+    </row>
+    <row r="360" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="4"/>
+      <c r="B360" s="4"/>
       <c r="C360" s="4"/>
-      <c r="D360" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E360" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F360" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="6"/>
       <c r="G360" s="5"/>
-      <c r="H360" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I360" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J360" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K360" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L360" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B361" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="H360" s="5"/>
+      <c r="I360" s="5"/>
+      <c r="J360" s="5"/>
+      <c r="K360" s="5"/>
+      <c r="L360" s="5"/>
+      <c r="M360" s="5"/>
+      <c r="N360" s="5"/>
+    </row>
+    <row r="361" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="4"/>
+      <c r="B361" s="4"/>
       <c r="C361" s="4"/>
-      <c r="D361" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E361" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F361" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="6"/>
       <c r="G361" s="5"/>
-      <c r="H361" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I361" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J361" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K361" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L361" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B362" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="H361" s="5"/>
+      <c r="I361" s="5"/>
+      <c r="J361" s="5"/>
+      <c r="K361" s="5"/>
+      <c r="L361" s="5"/>
+      <c r="M361" s="5"/>
+      <c r="N361" s="5"/>
+    </row>
+    <row r="362" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="4"/>
+      <c r="B362" s="4"/>
       <c r="C362" s="4"/>
-      <c r="D362" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E362" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F362" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="6"/>
       <c r="G362" s="5"/>
-      <c r="H362" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I362" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J362" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K362" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L362" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B363" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="H362" s="5"/>
+      <c r="I362" s="5"/>
+      <c r="J362" s="5"/>
+      <c r="K362" s="5"/>
+      <c r="L362" s="5"/>
+      <c r="M362" s="5"/>
+      <c r="N362" s="5"/>
+    </row>
+    <row r="363" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="4"/>
+      <c r="B363" s="4"/>
       <c r="C363" s="4"/>
-      <c r="D363" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E363" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F363" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="6"/>
       <c r="G363" s="5"/>
-      <c r="H363" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I363" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J363" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K363" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L363" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="7" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B364" s="7" t="n">
-        <v>45880</v>
-      </c>
+      <c r="H363" s="5"/>
+      <c r="I363" s="5"/>
+      <c r="J363" s="5"/>
+      <c r="K363" s="5"/>
+      <c r="L363" s="5"/>
+      <c r="M363" s="5"/>
+      <c r="N363" s="5"/>
+    </row>
+    <row r="364" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="7"/>
+      <c r="B364" s="7"/>
       <c r="C364" s="7"/>
-      <c r="D364" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E364" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F364" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D364" s="8"/>
+      <c r="E364" s="8"/>
+      <c r="F364" s="6"/>
       <c r="G364" s="8"/>
-      <c r="H364" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I364" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J364" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K364" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L364" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="H364" s="8"/>
+      <c r="I364" s="8"/>
+      <c r="J364" s="8"/>
+      <c r="K364" s="8"/>
+      <c r="L364" s="8"/>
+      <c r="M364" s="8"/>
       <c r="N364" s="8"/>
     </row>
-    <row r="365" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="7" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B365" s="7" t="n">
-        <v>45880</v>
-      </c>
+    <row r="365" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="7"/>
+      <c r="B365" s="7"/>
       <c r="C365" s="7"/>
-      <c r="D365" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E365" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F365" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="6"/>
       <c r="G365" s="5"/>
-      <c r="H365" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I365" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J365" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K365" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L365" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="4" t="n">
-        <v>45880</v>
-      </c>
-      <c r="B366" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5"/>
+      <c r="K365" s="5"/>
+      <c r="L365" s="5"/>
+      <c r="M365" s="5"/>
+      <c r="N365" s="5"/>
+    </row>
+    <row r="366" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="4"/>
+      <c r="B366" s="4"/>
       <c r="C366" s="4"/>
-      <c r="D366" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E366" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F366" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D366" s="8"/>
+      <c r="E366" s="8"/>
+      <c r="F366" s="6"/>
       <c r="G366" s="8"/>
-      <c r="H366" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I366" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J366" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K366" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L366" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="H366" s="8"/>
+      <c r="I366" s="8"/>
+      <c r="J366" s="8"/>
+      <c r="K366" s="8"/>
+      <c r="L366" s="8"/>
+      <c r="M366" s="8"/>
       <c r="N366" s="8"/>
     </row>
-    <row r="367" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="9" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B367" s="9" t="n">
-        <v>45876</v>
-      </c>
+    <row r="367" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="9"/>
+      <c r="B367" s="9"/>
       <c r="C367" s="9"/>
-      <c r="D367" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E367" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F367" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D367" s="8"/>
+      <c r="E367" s="8"/>
+      <c r="F367" s="6"/>
       <c r="G367" s="8"/>
-      <c r="H367" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I367" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J367" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K367" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L367" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="9" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B368" s="9" t="n">
-        <v>45879</v>
-      </c>
+      <c r="H367" s="8"/>
+      <c r="I367" s="8"/>
+      <c r="J367" s="8"/>
+      <c r="K367" s="8"/>
+      <c r="L367" s="8"/>
+      <c r="M367" s="8"/>
+    </row>
+    <row r="368" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="9"/>
+      <c r="B368" s="9"/>
       <c r="C368" s="9"/>
-      <c r="D368" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E368" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F368" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D368" s="10"/>
+      <c r="E368" s="11"/>
+      <c r="F368" s="6"/>
       <c r="G368" s="8"/>
-      <c r="H368" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I368" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J368" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K368" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="L368" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="9" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B369" s="9" t="n">
-        <v>45871</v>
-      </c>
+      <c r="H368" s="8"/>
+      <c r="I368" s="8"/>
+      <c r="J368" s="8"/>
+      <c r="K368" s="8"/>
+      <c r="L368" s="8"/>
+      <c r="M368" s="8"/>
+      <c r="N368" s="8"/>
+    </row>
+    <row r="369" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="9"/>
+      <c r="B369" s="9"/>
       <c r="C369" s="9"/>
-      <c r="D369" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E369" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F369" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D369" s="5"/>
+      <c r="E369" s="8"/>
+      <c r="F369" s="6"/>
       <c r="G369" s="5"/>
-      <c r="H369" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I369" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J369" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K369" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="L369" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="9" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B370" s="9" t="n">
-        <v>45871</v>
-      </c>
+      <c r="H369" s="8"/>
+      <c r="I369" s="5"/>
+      <c r="J369" s="5"/>
+      <c r="K369" s="5"/>
+      <c r="L369" s="5"/>
+      <c r="M369" s="5"/>
+      <c r="N369" s="8"/>
+    </row>
+    <row r="370" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="9"/>
+      <c r="B370" s="9"/>
       <c r="C370" s="9"/>
-      <c r="D370" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E370" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F370" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D370" s="5"/>
+      <c r="E370" s="8"/>
+      <c r="F370" s="6"/>
       <c r="G370" s="5"/>
-      <c r="H370" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I370" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J370" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K370" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L370" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="9" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B371" s="9" t="n">
-        <v>45872</v>
-      </c>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
+      <c r="J370" s="5"/>
+      <c r="K370" s="5"/>
+      <c r="L370" s="5"/>
+      <c r="M370" s="5"/>
+      <c r="N370" s="5"/>
+    </row>
+    <row r="371" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="9"/>
+      <c r="B371" s="9"/>
       <c r="C371" s="9"/>
-      <c r="D371" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E371" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F371" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D371" s="8"/>
+      <c r="E371" s="8"/>
+      <c r="F371" s="6"/>
       <c r="G371" s="8"/>
-      <c r="H371" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I371" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J371" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K371" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L371" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="9" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B372" s="9" t="n">
-        <v>45873</v>
-      </c>
+      <c r="H371" s="8"/>
+      <c r="I371" s="8"/>
+      <c r="J371" s="8"/>
+      <c r="K371" s="8"/>
+      <c r="L371" s="8"/>
+      <c r="M371" s="8"/>
+      <c r="N371" s="8"/>
+    </row>
+    <row r="372" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="9"/>
+      <c r="B372" s="9"/>
       <c r="C372" s="9"/>
-      <c r="D372" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E372" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F372" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D372" s="8"/>
+      <c r="E372" s="8"/>
+      <c r="F372" s="6"/>
       <c r="G372" s="8"/>
-      <c r="H372" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I372" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J372" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K372" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L372" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="9" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B373" s="9" t="n">
-        <v>45874</v>
-      </c>
+      <c r="H372" s="8"/>
+      <c r="I372" s="8"/>
+      <c r="J372" s="8"/>
+      <c r="K372" s="8"/>
+      <c r="L372" s="8"/>
+      <c r="M372" s="8"/>
+      <c r="N372" s="8"/>
+    </row>
+    <row r="373" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="9"/>
+      <c r="B373" s="9"/>
       <c r="C373" s="9"/>
-      <c r="D373" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E373" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F373" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="6"/>
       <c r="G373" s="5"/>
-      <c r="H373" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I373" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J373" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K373" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L373" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="9" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B374" s="9" t="n">
-        <v>45879</v>
-      </c>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5"/>
+      <c r="K373" s="5"/>
+      <c r="L373" s="5"/>
+      <c r="M373" s="5"/>
+      <c r="N373" s="5"/>
+    </row>
+    <row r="374" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="9"/>
+      <c r="B374" s="9"/>
       <c r="C374" s="9"/>
-      <c r="D374" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F374" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="6"/>
       <c r="G374" s="5"/>
-      <c r="H374" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I374" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J374" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K374" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L374" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="9" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B375" s="9" t="n">
-        <v>45879</v>
-      </c>
+      <c r="H374" s="5"/>
+      <c r="I374" s="5"/>
+      <c r="J374" s="5"/>
+      <c r="K374" s="5"/>
+      <c r="L374" s="5"/>
+      <c r="M374" s="5"/>
+      <c r="N374" s="5"/>
+    </row>
+    <row r="375" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="9"/>
+      <c r="B375" s="9"/>
       <c r="C375" s="9"/>
-      <c r="D375" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E375" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F375" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D375" s="8"/>
+      <c r="E375" s="8"/>
+      <c r="F375" s="6"/>
       <c r="G375" s="8"/>
-      <c r="H375" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I375" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J375" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K375" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L375" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="9" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B376" s="9" t="n">
-        <v>45879</v>
-      </c>
+      <c r="H375" s="8"/>
+      <c r="I375" s="8"/>
+      <c r="J375" s="8"/>
+      <c r="K375" s="8"/>
+      <c r="L375" s="8"/>
+      <c r="M375" s="8"/>
+      <c r="N375" s="8"/>
+    </row>
+    <row r="376" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="9"/>
+      <c r="B376" s="9"/>
       <c r="C376" s="9"/>
-      <c r="D376" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E376" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F376" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="6"/>
       <c r="G376" s="5"/>
-      <c r="H376" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I376" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J376" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K376" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L376" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N376" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="H376" s="5"/>
+      <c r="I376" s="5"/>
+      <c r="J376" s="5"/>
+      <c r="K376" s="5"/>
+      <c r="L376" s="5"/>
+      <c r="M376" s="5"/>
+      <c r="N376" s="5"/>
     </row>
     <row r="377" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="9" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B377" s="9" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A377" s="9"/>
+      <c r="B377" s="9"/>
       <c r="C377" s="9"/>
-      <c r="D377" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E377" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F377" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D377" s="12"/>
+      <c r="E377" s="13"/>
+      <c r="F377" s="6"/>
       <c r="G377" s="5"/>
-      <c r="H377" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I377" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J377" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K377" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L377" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M377" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N377" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="H377" s="5"/>
+      <c r="I377" s="5"/>
+      <c r="J377" s="5"/>
+      <c r="K377" s="5"/>
+      <c r="L377" s="5"/>
+      <c r="M377" s="5"/>
+      <c r="N377" s="5"/>
     </row>
     <row r="378" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="9" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B378" s="9" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A378" s="9"/>
+      <c r="B378" s="9"/>
       <c r="C378" s="9"/>
-      <c r="D378" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E378" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F378" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="6"/>
       <c r="G378" s="5"/>
-      <c r="H378" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I378" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J378" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K378" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L378" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M378" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N378" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="9" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B379" s="9" t="n">
-        <v>45875</v>
-      </c>
+      <c r="H378" s="5"/>
+      <c r="I378" s="5"/>
+      <c r="J378" s="5"/>
+      <c r="K378" s="5"/>
+      <c r="L378" s="5"/>
+      <c r="M378" s="5"/>
+      <c r="N378" s="5"/>
+    </row>
+    <row r="379" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="9"/>
+      <c r="B379" s="9"/>
       <c r="C379" s="9"/>
-      <c r="D379" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E379" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F379" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="6"/>
       <c r="G379" s="5"/>
-      <c r="H379" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I379" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J379" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K379" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L379" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M379" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N379" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="9" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B380" s="9" t="n">
-        <v>45874</v>
-      </c>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5"/>
+      <c r="K379" s="5"/>
+      <c r="L379" s="5"/>
+      <c r="M379" s="5"/>
+      <c r="N379" s="5"/>
+    </row>
+    <row r="380" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="9"/>
+      <c r="B380" s="9"/>
       <c r="C380" s="9"/>
-      <c r="D380" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E380" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F380" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="6"/>
       <c r="G380" s="5"/>
-      <c r="H380" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I380" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J380" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K380" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L380" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M380" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N380" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="9" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B381" s="9" t="n">
-        <v>45880</v>
-      </c>
+      <c r="H380" s="5"/>
+      <c r="I380" s="5"/>
+      <c r="J380" s="5"/>
+      <c r="K380" s="5"/>
+      <c r="L380" s="5"/>
+      <c r="M380" s="5"/>
+      <c r="N380" s="5"/>
+    </row>
+    <row r="381" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="9"/>
+      <c r="B381" s="9"/>
       <c r="C381" s="9"/>
-      <c r="D381" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E381" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F381" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="6"/>
       <c r="G381" s="5"/>
-      <c r="H381" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I381" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J381" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K381" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L381" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M381" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N381" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="9" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B382" s="9" t="n">
-        <v>45873</v>
-      </c>
+      <c r="H381" s="5"/>
+      <c r="I381" s="5"/>
+      <c r="J381" s="5"/>
+      <c r="K381" s="5"/>
+      <c r="L381" s="5"/>
+      <c r="M381" s="5"/>
+      <c r="N381" s="5"/>
+    </row>
+    <row r="382" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="9"/>
+      <c r="B382" s="9"/>
       <c r="C382" s="9"/>
-      <c r="D382" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E382" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F382" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="6"/>
       <c r="G382" s="5"/>
-      <c r="H382" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I382" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J382" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K382" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="L382" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M382" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N382" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="9" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B383" s="9" t="n">
-        <v>45873</v>
-      </c>
+      <c r="H382" s="5"/>
+      <c r="I382" s="5"/>
+      <c r="J382" s="5"/>
+      <c r="K382" s="5"/>
+      <c r="L382" s="5"/>
+      <c r="M382" s="5"/>
+      <c r="N382" s="5"/>
+    </row>
+    <row r="383" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="9"/>
+      <c r="B383" s="9"/>
       <c r="C383" s="9"/>
-      <c r="D383" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E383" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F383" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D383" s="8"/>
+      <c r="E383" s="8"/>
+      <c r="F383" s="6"/>
       <c r="G383" s="8"/>
-      <c r="H383" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I383" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J383" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K383" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L383" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M383" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N383" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="9" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B384" s="9" t="n">
-        <v>45871</v>
-      </c>
+      <c r="H383" s="8"/>
+      <c r="I383" s="8"/>
+      <c r="J383" s="8"/>
+      <c r="K383" s="8"/>
+      <c r="L383" s="8"/>
+      <c r="M383" s="8"/>
+      <c r="N383" s="8"/>
+    </row>
+    <row r="384" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="9"/>
+      <c r="B384" s="9"/>
       <c r="C384" s="9"/>
-      <c r="D384" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E384" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F384" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="6"/>
       <c r="G384" s="5"/>
-      <c r="H384" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I384" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J384" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K384" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L384" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M384" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N384" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="H384" s="5"/>
+      <c r="I384" s="5"/>
+      <c r="J384" s="5"/>
+      <c r="K384" s="5"/>
+      <c r="L384" s="5"/>
+      <c r="M384" s="5"/>
+      <c r="N384" s="5"/>
     </row>
     <row r="385" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="9" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B385" s="9" t="n">
-        <v>45876</v>
-      </c>
+      <c r="A385" s="9"/>
+      <c r="B385" s="9"/>
       <c r="C385" s="9"/>
-      <c r="D385" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E385" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F385" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="6"/>
       <c r="G385" s="5"/>
-      <c r="H385" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I385" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J385" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K385" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L385" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M385" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N385" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="9" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B386" s="9" t="n">
-        <v>45874</v>
-      </c>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5"/>
+      <c r="K385" s="5"/>
+      <c r="L385" s="5"/>
+      <c r="M385" s="5"/>
+      <c r="N385" s="5"/>
+    </row>
+    <row r="386" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="9"/>
+      <c r="B386" s="9"/>
       <c r="C386" s="9"/>
-      <c r="D386" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E386" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F386" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="6"/>
       <c r="G386" s="5"/>
-      <c r="H386" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I386" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J386" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K386" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L386" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M386" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N386" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5"/>
+      <c r="K386" s="5"/>
+      <c r="L386" s="5"/>
+      <c r="M386" s="5"/>
+      <c r="N386" s="5"/>
     </row>
     <row r="387" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="9" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B387" s="9" t="n">
-        <v>45873</v>
-      </c>
+      <c r="A387" s="9"/>
+      <c r="B387" s="9"/>
       <c r="C387" s="9"/>
-      <c r="D387" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E387" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F387" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="6"/>
       <c r="G387" s="5"/>
-      <c r="H387" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I387" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J387" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K387" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L387" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M387" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N387" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="H387" s="5"/>
+      <c r="I387" s="5"/>
+      <c r="J387" s="5"/>
+      <c r="K387" s="5"/>
+      <c r="L387" s="5"/>
+      <c r="M387" s="5"/>
+      <c r="N387" s="5"/>
     </row>
     <row r="388" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="9" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B388" s="9" t="n">
-        <v>45875</v>
-      </c>
+      <c r="A388" s="9"/>
+      <c r="B388" s="9"/>
       <c r="C388" s="9"/>
-      <c r="D388" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E388" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F388" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="6"/>
       <c r="G388" s="5"/>
-      <c r="H388" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I388" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J388" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K388" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L388" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M388" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N388" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="H388" s="5"/>
+      <c r="I388" s="5"/>
+      <c r="J388" s="5"/>
+      <c r="K388" s="5"/>
+      <c r="L388" s="5"/>
+      <c r="M388" s="5"/>
+      <c r="N388" s="5"/>
     </row>
     <row r="389" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="9" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B389" s="9" t="n">
-        <v>45872</v>
-      </c>
+      <c r="A389" s="9"/>
+      <c r="B389" s="9"/>
       <c r="C389" s="9"/>
-      <c r="D389" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E389" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F389" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="6"/>
       <c r="G389" s="5"/>
-      <c r="H389" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I389" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J389" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K389" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L389" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M389" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N389" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="9" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B390" s="9" t="n">
-        <v>45873</v>
-      </c>
+      <c r="H389" s="5"/>
+      <c r="I389" s="5"/>
+      <c r="J389" s="5"/>
+      <c r="K389" s="5"/>
+      <c r="L389" s="5"/>
+      <c r="M389" s="5"/>
+      <c r="N389" s="5"/>
+    </row>
+    <row r="390" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="9"/>
+      <c r="B390" s="9"/>
       <c r="C390" s="9"/>
-      <c r="D390" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E390" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F390" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D390" s="5"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="6"/>
       <c r="G390" s="5"/>
-      <c r="H390" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I390" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J390" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K390" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L390" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M390" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N390" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="H390" s="5"/>
+      <c r="I390" s="5"/>
+      <c r="J390" s="5"/>
+      <c r="K390" s="5"/>
+      <c r="L390" s="5"/>
+      <c r="M390" s="5"/>
+      <c r="N390" s="5"/>
     </row>
     <row r="391" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B391" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A391" s="4"/>
+      <c r="B391" s="4"/>
       <c r="C391" s="4"/>
-      <c r="D391" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E391" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F391" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="6"/>
       <c r="G391" s="5"/>
-      <c r="H391" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I391" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J391" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K391" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L391" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M391" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N391" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="H391" s="5"/>
+      <c r="I391" s="5"/>
+      <c r="J391" s="5"/>
+      <c r="K391" s="5"/>
+      <c r="L391" s="5"/>
+      <c r="M391" s="5"/>
+      <c r="N391" s="5"/>
     </row>
     <row r="392" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="4" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B392" s="4" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A392" s="4"/>
+      <c r="B392" s="4"/>
       <c r="C392" s="4"/>
-      <c r="D392" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E392" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F392" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="6"/>
       <c r="G392" s="5"/>
-      <c r="H392" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I392" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J392" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K392" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L392" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M392" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N392" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="H392" s="5"/>
+      <c r="I392" s="5"/>
+      <c r="J392" s="5"/>
+      <c r="K392" s="5"/>
+      <c r="L392" s="5"/>
+      <c r="M392" s="5"/>
+      <c r="N392" s="5"/>
     </row>
     <row r="393" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="9" t="n">
-        <v>45879</v>
-      </c>
-      <c r="B393" s="9" t="n">
-        <v>45880</v>
-      </c>
+      <c r="A393" s="9"/>
+      <c r="B393" s="9"/>
       <c r="C393" s="9"/>
-      <c r="D393" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E393" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F393" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+      <c r="F393" s="6"/>
       <c r="G393" s="5"/>
-      <c r="H393" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I393" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J393" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K393" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L393" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M393" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N393" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="9" t="n">
-        <v>45878</v>
-      </c>
-      <c r="B394" s="9" t="n">
-        <v>45879</v>
-      </c>
+      <c r="H393" s="5"/>
+      <c r="I393" s="5"/>
+      <c r="J393" s="5"/>
+      <c r="K393" s="5"/>
+      <c r="L393" s="5"/>
+      <c r="M393" s="5"/>
+      <c r="N393" s="5"/>
+    </row>
+    <row r="394" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="9"/>
+      <c r="B394" s="9"/>
       <c r="C394" s="9"/>
-      <c r="D394" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E394" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F394" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="6"/>
       <c r="G394" s="5"/>
-      <c r="H394" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I394" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J394" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K394" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L394" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N394" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B395" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="5"/>
+      <c r="K394" s="5"/>
+      <c r="L394" s="5"/>
+      <c r="M394" s="5"/>
+      <c r="N394" s="5"/>
+    </row>
+    <row r="395" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="14"/>
+      <c r="B395" s="14"/>
       <c r="C395" s="14"/>
-      <c r="D395" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E395" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F395" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D395" s="14"/>
+      <c r="E395" s="14"/>
+      <c r="F395" s="6"/>
       <c r="G395" s="14"/>
-      <c r="H395" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I395" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J395" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K395" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L395" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="H395" s="14"/>
+      <c r="I395" s="14"/>
+      <c r="J395" s="14"/>
+      <c r="K395" s="15"/>
+      <c r="L395" s="15"/>
+      <c r="M395" s="15"/>
       <c r="N395" s="14"/>
     </row>
-    <row r="396" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B396" s="14" t="n">
-        <v>45904</v>
-      </c>
+    <row r="396" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="14"/>
+      <c r="B396" s="14"/>
       <c r="C396" s="14"/>
-      <c r="D396" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E396" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F396" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D396" s="4"/>
+      <c r="E396" s="4"/>
+      <c r="F396" s="6"/>
       <c r="G396" s="4"/>
-      <c r="H396" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I396" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J396" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K396" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L396" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="H396" s="4"/>
+      <c r="I396" s="4"/>
+      <c r="J396" s="4"/>
+      <c r="K396" s="15"/>
+      <c r="L396" s="15"/>
+      <c r="M396" s="15"/>
       <c r="N396" s="4"/>
     </row>
-    <row r="397" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B397" s="14" t="n">
-        <v>45904</v>
-      </c>
+    <row r="397" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="14"/>
+      <c r="B397" s="14"/>
       <c r="C397" s="14"/>
-      <c r="D397" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E397" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F397" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D397" s="15"/>
+      <c r="E397" s="16"/>
+      <c r="F397" s="6"/>
       <c r="G397" s="15"/>
-      <c r="H397" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I397" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J397" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K397" s="15" t="n">
-        <v>16</v>
-      </c>
-      <c r="L397" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N397" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B398" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H397" s="15"/>
+      <c r="I397" s="15"/>
+      <c r="J397" s="15"/>
+      <c r="K397" s="15"/>
+      <c r="L397" s="15"/>
+      <c r="M397" s="15"/>
+      <c r="N397" s="15"/>
+    </row>
+    <row r="398" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="14"/>
+      <c r="B398" s="14"/>
       <c r="C398" s="14"/>
-      <c r="D398" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E398" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F398" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4"/>
+      <c r="F398" s="6"/>
       <c r="G398" s="4"/>
-      <c r="H398" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I398" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J398" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K398" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L398" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N398" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B399" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H398" s="4"/>
+      <c r="I398" s="4"/>
+      <c r="J398" s="4"/>
+      <c r="K398" s="15"/>
+      <c r="L398" s="15"/>
+      <c r="M398" s="15"/>
+      <c r="N398" s="4"/>
+    </row>
+    <row r="399" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="14"/>
+      <c r="B399" s="14"/>
       <c r="C399" s="14"/>
-      <c r="D399" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E399" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F399" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D399" s="4"/>
+      <c r="E399" s="4"/>
+      <c r="F399" s="6"/>
       <c r="G399" s="4"/>
-      <c r="H399" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I399" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J399" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K399" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L399" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N399" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B400" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H399" s="4"/>
+      <c r="I399" s="4"/>
+      <c r="J399" s="4"/>
+      <c r="K399" s="15"/>
+      <c r="L399" s="15"/>
+      <c r="M399" s="15"/>
+      <c r="N399" s="4"/>
+    </row>
+    <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="14"/>
+      <c r="B400" s="14"/>
       <c r="C400" s="14"/>
-      <c r="D400" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E400" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F400" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D400" s="16"/>
+      <c r="E400" s="16"/>
+      <c r="F400" s="6"/>
       <c r="G400" s="16"/>
-      <c r="H400" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I400" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J400" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K400" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="L400" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="H400" s="16"/>
+      <c r="I400" s="16"/>
+      <c r="J400" s="16"/>
+      <c r="K400" s="16"/>
+      <c r="L400" s="16"/>
+      <c r="M400" s="16"/>
       <c r="N400" s="16"/>
     </row>
-    <row r="401" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B401" s="14" t="n">
-        <v>45904</v>
-      </c>
+    <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="14"/>
+      <c r="B401" s="14"/>
       <c r="C401" s="14"/>
-      <c r="D401" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E401" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F401" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D401" s="15"/>
+      <c r="E401" s="15"/>
+      <c r="F401" s="6"/>
       <c r="G401" s="15"/>
-      <c r="H401" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I401" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J401" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K401" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="L401" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N401" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B402" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H401" s="15"/>
+      <c r="I401" s="15"/>
+      <c r="J401" s="15"/>
+      <c r="K401" s="15"/>
+      <c r="L401" s="15"/>
+      <c r="M401" s="15"/>
+      <c r="N401" s="15"/>
+    </row>
+    <row r="402" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="14"/>
+      <c r="B402" s="14"/>
       <c r="C402" s="14"/>
-      <c r="D402" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E402" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F402" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D402" s="15"/>
+      <c r="E402" s="15"/>
+      <c r="F402" s="6"/>
       <c r="G402" s="15"/>
-      <c r="H402" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I402" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J402" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K402" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="L402" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N402" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B403" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H402" s="15"/>
+      <c r="I402" s="15"/>
+      <c r="J402" s="15"/>
+      <c r="K402" s="15"/>
+      <c r="L402" s="15"/>
+      <c r="M402" s="15"/>
+      <c r="N402" s="15"/>
+    </row>
+    <row r="403" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="14"/>
+      <c r="B403" s="14"/>
       <c r="C403" s="14"/>
-      <c r="D403" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E403" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F403" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D403" s="15"/>
+      <c r="E403" s="15"/>
+      <c r="F403" s="6"/>
       <c r="G403" s="15"/>
-      <c r="H403" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I403" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J403" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K403" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="L403" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N403" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B404" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H403" s="15"/>
+      <c r="I403" s="15"/>
+      <c r="J403" s="15"/>
+      <c r="K403" s="15"/>
+      <c r="L403" s="15"/>
+      <c r="M403" s="15"/>
+      <c r="N403" s="15"/>
+    </row>
+    <row r="404" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="14"/>
+      <c r="B404" s="14"/>
       <c r="C404" s="14"/>
-      <c r="D404" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E404" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F404" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D404" s="15"/>
+      <c r="E404" s="15"/>
+      <c r="F404" s="6"/>
       <c r="G404" s="15"/>
-      <c r="H404" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I404" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J404" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K404" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L404" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N404" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B405" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H404" s="15"/>
+      <c r="I404" s="15"/>
+      <c r="J404" s="16"/>
+      <c r="K404" s="15"/>
+      <c r="L404" s="15"/>
+      <c r="M404" s="15"/>
+      <c r="N404" s="15"/>
+    </row>
+    <row r="405" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="14"/>
+      <c r="B405" s="14"/>
       <c r="C405" s="14"/>
-      <c r="D405" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E405" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F405" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D405" s="15"/>
+      <c r="E405" s="15"/>
+      <c r="F405" s="6"/>
       <c r="G405" s="15"/>
-      <c r="H405" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I405" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J405" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K405" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="L405" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N405" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B406" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H405" s="15"/>
+      <c r="I405" s="15"/>
+      <c r="J405" s="16"/>
+      <c r="K405" s="15"/>
+      <c r="L405" s="15"/>
+      <c r="M405" s="15"/>
+      <c r="N405" s="15"/>
+    </row>
+    <row r="406" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="14"/>
+      <c r="B406" s="14"/>
       <c r="C406" s="14"/>
-      <c r="D406" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E406" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F406" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D406" s="15"/>
+      <c r="E406" s="15"/>
+      <c r="F406" s="6"/>
       <c r="G406" s="15"/>
-      <c r="H406" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I406" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J406" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K406" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L406" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N406" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B407" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H406" s="15"/>
+      <c r="I406" s="15"/>
+      <c r="J406" s="16"/>
+      <c r="K406" s="15"/>
+      <c r="L406" s="15"/>
+      <c r="M406" s="15"/>
+      <c r="N406" s="15"/>
+    </row>
+    <row r="407" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="14"/>
+      <c r="B407" s="14"/>
       <c r="C407" s="14"/>
-      <c r="D407" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E407" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F407" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D407" s="15"/>
+      <c r="E407" s="15"/>
+      <c r="F407" s="6"/>
       <c r="G407" s="15"/>
-      <c r="H407" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I407" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J407" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K407" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="L407" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N407" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B408" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H407" s="15"/>
+      <c r="I407" s="15"/>
+      <c r="J407" s="15"/>
+      <c r="K407" s="15"/>
+      <c r="L407" s="15"/>
+      <c r="M407" s="15"/>
+      <c r="N407" s="15"/>
+    </row>
+    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="14"/>
+      <c r="B408" s="14"/>
       <c r="C408" s="14"/>
-      <c r="D408" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E408" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F408" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D408" s="15"/>
+      <c r="E408" s="15"/>
+      <c r="F408" s="6"/>
       <c r="G408" s="15"/>
-      <c r="H408" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I408" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J408" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K408" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="L408" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N408" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B409" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H408" s="15"/>
+      <c r="I408" s="15"/>
+      <c r="J408" s="15"/>
+      <c r="K408" s="15"/>
+      <c r="L408" s="15"/>
+      <c r="M408" s="15"/>
+      <c r="N408" s="15"/>
+    </row>
+    <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="14"/>
+      <c r="B409" s="14"/>
       <c r="C409" s="14"/>
-      <c r="D409" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E409" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F409" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D409" s="15"/>
+      <c r="E409" s="15"/>
+      <c r="F409" s="6"/>
       <c r="G409" s="15"/>
-      <c r="H409" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I409" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J409" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K409" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="L409" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N409" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B410" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H409" s="15"/>
+      <c r="I409" s="15"/>
+      <c r="J409" s="15"/>
+      <c r="K409" s="15"/>
+      <c r="L409" s="15"/>
+      <c r="M409" s="15"/>
+      <c r="N409" s="15"/>
+    </row>
+    <row r="410" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="14"/>
+      <c r="B410" s="14"/>
       <c r="C410" s="14"/>
-      <c r="D410" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E410" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F410" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D410" s="15"/>
+      <c r="E410" s="15"/>
+      <c r="F410" s="6"/>
       <c r="G410" s="15"/>
-      <c r="H410" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I410" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J410" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K410" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L410" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N410" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B411" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H410" s="15"/>
+      <c r="I410" s="15"/>
+      <c r="J410" s="15"/>
+      <c r="K410" s="15"/>
+      <c r="L410" s="15"/>
+      <c r="M410" s="15"/>
+      <c r="N410" s="15"/>
+    </row>
+    <row r="411" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="14"/>
+      <c r="B411" s="14"/>
       <c r="C411" s="14"/>
-      <c r="D411" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E411" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F411" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D411" s="16"/>
+      <c r="E411" s="17"/>
+      <c r="F411" s="6"/>
       <c r="G411" s="16"/>
-      <c r="H411" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I411" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J411" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K411" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="L411" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N411" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B412" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H411" s="16"/>
+      <c r="I411" s="16"/>
+      <c r="J411" s="16"/>
+      <c r="K411" s="16"/>
+      <c r="L411" s="16"/>
+      <c r="M411" s="16"/>
+      <c r="N411" s="16"/>
+    </row>
+    <row r="412" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="14"/>
+      <c r="B412" s="14"/>
       <c r="C412" s="14"/>
-      <c r="D412" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E412" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F412" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D412" s="15"/>
+      <c r="E412" s="15"/>
+      <c r="F412" s="6"/>
       <c r="G412" s="15"/>
-      <c r="H412" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I412" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J412" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K412" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="L412" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N412" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B413" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H412" s="15"/>
+      <c r="I412" s="15"/>
+      <c r="J412" s="15"/>
+      <c r="K412" s="15"/>
+      <c r="L412" s="15"/>
+      <c r="M412" s="15"/>
+      <c r="N412" s="15"/>
+    </row>
+    <row r="413" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="14"/>
+      <c r="B413" s="14"/>
       <c r="C413" s="14"/>
-      <c r="D413" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E413" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F413" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D413" s="15"/>
+      <c r="E413" s="15"/>
+      <c r="F413" s="6"/>
       <c r="G413" s="15"/>
-      <c r="H413" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I413" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J413" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K413" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L413" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M413" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N413" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B414" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H413" s="15"/>
+      <c r="I413" s="15"/>
+      <c r="J413" s="15"/>
+      <c r="K413" s="15"/>
+      <c r="L413" s="15"/>
+      <c r="M413" s="15"/>
+      <c r="N413" s="15"/>
+    </row>
+    <row r="414" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="14"/>
+      <c r="B414" s="14"/>
       <c r="C414" s="14"/>
-      <c r="D414" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E414" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F414" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D414" s="15"/>
+      <c r="E414" s="15"/>
+      <c r="F414" s="6"/>
       <c r="G414" s="15"/>
-      <c r="H414" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I414" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J414" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K414" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L414" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M414" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N414" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B415" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H414" s="15"/>
+      <c r="I414" s="15"/>
+      <c r="J414" s="15"/>
+      <c r="K414" s="15"/>
+      <c r="L414" s="15"/>
+      <c r="M414" s="15"/>
+      <c r="N414" s="15"/>
+    </row>
+    <row r="415" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="14"/>
+      <c r="B415" s="14"/>
       <c r="C415" s="14"/>
-      <c r="D415" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E415" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F415" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D415" s="16"/>
+      <c r="E415" s="16"/>
+      <c r="F415" s="6"/>
       <c r="G415" s="16"/>
-      <c r="H415" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I415" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J415" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K415" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="L415" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M415" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N415" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="H415" s="16"/>
+      <c r="I415" s="16"/>
+      <c r="J415" s="16"/>
+      <c r="K415" s="16"/>
+      <c r="L415" s="16"/>
+      <c r="M415" s="16"/>
+      <c r="N415" s="16"/>
     </row>
     <row r="416" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B416" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="A416" s="14"/>
+      <c r="B416" s="14"/>
       <c r="C416" s="14"/>
-      <c r="D416" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E416" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F416" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D416" s="15"/>
+      <c r="E416" s="15"/>
+      <c r="F416" s="6"/>
       <c r="G416" s="15"/>
-      <c r="H416" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I416" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J416" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K416" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="L416" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M416" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N416" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B417" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H416" s="15"/>
+      <c r="I416" s="15"/>
+      <c r="J416" s="15"/>
+      <c r="K416" s="15"/>
+      <c r="L416" s="15"/>
+      <c r="M416" s="15"/>
+      <c r="N416" s="15"/>
+    </row>
+    <row r="417" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="14"/>
+      <c r="B417" s="14"/>
       <c r="C417" s="14"/>
-      <c r="D417" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E417" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F417" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D417" s="15"/>
+      <c r="E417" s="15"/>
+      <c r="F417" s="6"/>
       <c r="G417" s="15"/>
-      <c r="H417" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I417" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J417" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K417" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="L417" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M417" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N417" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="H417" s="15"/>
+      <c r="I417" s="15"/>
+      <c r="J417" s="15"/>
+      <c r="K417" s="15"/>
+      <c r="L417" s="15"/>
+      <c r="M417" s="15"/>
+      <c r="N417" s="15"/>
     </row>
     <row r="418" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B418" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="A418" s="14"/>
+      <c r="B418" s="14"/>
       <c r="C418" s="14"/>
-      <c r="D418" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E418" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F418" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D418" s="15"/>
+      <c r="E418" s="15"/>
+      <c r="F418" s="6"/>
       <c r="G418" s="15"/>
-      <c r="H418" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I418" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J418" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K418" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="L418" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M418" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N418" s="15" t="s">
-        <v>147</v>
-      </c>
+      <c r="H418" s="15"/>
+      <c r="I418" s="15"/>
+      <c r="J418" s="15"/>
+      <c r="K418" s="15"/>
+      <c r="L418" s="15"/>
+      <c r="M418" s="15"/>
+      <c r="N418" s="15"/>
     </row>
     <row r="419" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B419" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="A419" s="14"/>
+      <c r="B419" s="14"/>
       <c r="C419" s="14"/>
-      <c r="D419" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E419" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F419" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D419" s="15"/>
+      <c r="E419" s="15"/>
+      <c r="F419" s="6"/>
       <c r="G419" s="15"/>
-      <c r="H419" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I419" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J419" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K419" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L419" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M419" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N419" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="H419" s="15"/>
+      <c r="I419" s="15"/>
+      <c r="J419" s="15"/>
+      <c r="K419" s="15"/>
+      <c r="L419" s="15"/>
+      <c r="M419" s="15"/>
+      <c r="N419" s="15"/>
     </row>
     <row r="420" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B420" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="A420" s="14"/>
+      <c r="B420" s="14"/>
       <c r="C420" s="14"/>
-      <c r="D420" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E420" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F420" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D420" s="15"/>
+      <c r="E420" s="15"/>
+      <c r="F420" s="6"/>
       <c r="G420" s="15"/>
-      <c r="H420" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I420" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J420" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K420" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="L420" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M420" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N420" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="H420" s="15"/>
+      <c r="I420" s="15"/>
+      <c r="J420" s="15"/>
+      <c r="K420" s="15"/>
+      <c r="L420" s="15"/>
+      <c r="M420" s="15"/>
+      <c r="N420" s="15"/>
     </row>
     <row r="421" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B421" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="A421" s="14"/>
+      <c r="B421" s="14"/>
       <c r="C421" s="14"/>
-      <c r="D421" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E421" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F421" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D421" s="16"/>
+      <c r="E421" s="16"/>
+      <c r="F421" s="6"/>
       <c r="G421" s="16"/>
-      <c r="H421" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I421" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J421" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K421" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="L421" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M421" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N421" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B422" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H421" s="16"/>
+      <c r="I421" s="16"/>
+      <c r="J421" s="16"/>
+      <c r="K421" s="16"/>
+      <c r="L421" s="16"/>
+      <c r="M421" s="16"/>
+      <c r="N421" s="16"/>
+    </row>
+    <row r="422" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="14"/>
+      <c r="B422" s="14"/>
       <c r="C422" s="14"/>
-      <c r="D422" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E422" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F422" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D422" s="16"/>
+      <c r="E422" s="16"/>
+      <c r="F422" s="6"/>
       <c r="G422" s="16"/>
-      <c r="H422" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I422" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J422" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K422" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="L422" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M422" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N422" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B423" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H422" s="16"/>
+      <c r="I422" s="16"/>
+      <c r="J422" s="16"/>
+      <c r="K422" s="16"/>
+      <c r="L422" s="16"/>
+      <c r="M422" s="16"/>
+      <c r="N422" s="16"/>
+    </row>
+    <row r="423" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="14"/>
+      <c r="B423" s="14"/>
       <c r="C423" s="14"/>
-      <c r="D423" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E423" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F423" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D423" s="16"/>
+      <c r="E423" s="16"/>
+      <c r="F423" s="6"/>
       <c r="G423" s="16"/>
-      <c r="H423" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I423" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J423" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K423" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="L423" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M423" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N423" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B424" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H423" s="16"/>
+      <c r="I423" s="16"/>
+      <c r="J423" s="16"/>
+      <c r="K423" s="16"/>
+      <c r="L423" s="16"/>
+      <c r="M423" s="16"/>
+      <c r="N423" s="16"/>
+    </row>
+    <row r="424" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="14"/>
+      <c r="B424" s="14"/>
       <c r="C424" s="14"/>
-      <c r="D424" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E424" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F424" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D424" s="16"/>
+      <c r="E424" s="16"/>
+      <c r="F424" s="6"/>
       <c r="G424" s="16"/>
-      <c r="H424" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I424" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J424" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K424" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="L424" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M424" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N424" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B425" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H424" s="16"/>
+      <c r="I424" s="16"/>
+      <c r="J424" s="16"/>
+      <c r="K424" s="16"/>
+      <c r="L424" s="16"/>
+      <c r="M424" s="16"/>
+      <c r="N424" s="16"/>
+    </row>
+    <row r="425" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="14"/>
+      <c r="B425" s="14"/>
       <c r="C425" s="14"/>
-      <c r="D425" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E425" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F425" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D425" s="15"/>
+      <c r="E425" s="15"/>
+      <c r="F425" s="6"/>
       <c r="G425" s="15"/>
-      <c r="H425" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I425" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J425" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K425" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L425" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M425" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N425" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="H425" s="15"/>
+      <c r="I425" s="15"/>
+      <c r="J425" s="15"/>
+      <c r="K425" s="15"/>
+      <c r="L425" s="15"/>
+      <c r="M425" s="15"/>
+      <c r="N425" s="15"/>
     </row>
     <row r="426" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B426" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="A426" s="14"/>
+      <c r="B426" s="14"/>
       <c r="C426" s="14"/>
-      <c r="D426" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E426" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F426" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D426" s="15"/>
+      <c r="E426" s="15"/>
+      <c r="F426" s="6"/>
       <c r="G426" s="15"/>
-      <c r="H426" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I426" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J426" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K426" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L426" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M426" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N426" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B427" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="H426" s="15"/>
+      <c r="I426" s="15"/>
+      <c r="J426" s="15"/>
+      <c r="K426" s="15"/>
+      <c r="L426" s="15"/>
+      <c r="M426" s="15"/>
+      <c r="N426" s="15"/>
+    </row>
+    <row r="427" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="14"/>
+      <c r="B427" s="14"/>
       <c r="C427" s="14"/>
-      <c r="D427" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E427" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F427" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D427" s="15"/>
+      <c r="E427" s="15"/>
+      <c r="F427" s="6"/>
       <c r="G427" s="15"/>
-      <c r="H427" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I427" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J427" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K427" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L427" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M427" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N427" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="H427" s="15"/>
+      <c r="I427" s="15"/>
+      <c r="J427" s="15"/>
+      <c r="K427" s="15"/>
+      <c r="L427" s="15"/>
+      <c r="M427" s="15"/>
+      <c r="N427" s="15"/>
     </row>
     <row r="428" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="14" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B428" s="14" t="n">
-        <v>45904</v>
-      </c>
+      <c r="A428" s="14"/>
+      <c r="B428" s="14"/>
       <c r="C428" s="14"/>
-      <c r="D428" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E428" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F428" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D428" s="15"/>
+      <c r="E428" s="15"/>
+      <c r="F428" s="6"/>
       <c r="G428" s="15"/>
-      <c r="H428" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I428" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J428" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K428" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L428" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M428" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N428" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="H428" s="15"/>
+      <c r="I428" s="15"/>
+      <c r="J428" s="15"/>
+      <c r="K428" s="15"/>
+      <c r="L428" s="15"/>
+      <c r="M428" s="15"/>
+      <c r="N428" s="15"/>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:P2"/>
   <mergeCells count="4">
